--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Wnt4-Fzd6.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Wnt4-Fzd6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.591275174862395</v>
+        <v>0.8155043333333333</v>
       </c>
       <c r="H2">
-        <v>0.591275174862395</v>
+        <v>2.446513</v>
       </c>
       <c r="I2">
-        <v>0.05082368193160999</v>
+        <v>0.06451520947540776</v>
       </c>
       <c r="J2">
-        <v>0.05082368193160999</v>
+        <v>0.06451520947540779</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.1148605612457</v>
+        <v>13.877148</v>
       </c>
       <c r="N2">
-        <v>11.1148605612457</v>
+        <v>41.631444</v>
       </c>
       <c r="O2">
-        <v>0.9836137494541555</v>
+        <v>0.9551716529386821</v>
       </c>
       <c r="P2">
-        <v>0.9836137494541555</v>
+        <v>0.9551716529386822</v>
       </c>
       <c r="Q2">
-        <v>6.571941121921689</v>
+        <v>11.316874328308</v>
       </c>
       <c r="R2">
-        <v>6.571941121921689</v>
+        <v>101.851868954772</v>
       </c>
       <c r="S2">
-        <v>0.04999087234581632</v>
+        <v>0.06162309927431055</v>
       </c>
       <c r="T2">
-        <v>0.04999087234581632</v>
+        <v>0.06162309927431059</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.591275174862395</v>
+        <v>0.8155043333333333</v>
       </c>
       <c r="H3">
-        <v>0.591275174862395</v>
+        <v>2.446513</v>
       </c>
       <c r="I3">
-        <v>0.05082368193160999</v>
+        <v>0.06451520947540776</v>
       </c>
       <c r="J3">
-        <v>0.05082368193160999</v>
+        <v>0.06451520947540779</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.185165050854332</v>
+        <v>0.4259926666666667</v>
       </c>
       <c r="N3">
-        <v>0.185165050854332</v>
+        <v>1.277978</v>
       </c>
       <c r="O3">
-        <v>0.01638625054584459</v>
+        <v>0.02932130719941569</v>
       </c>
       <c r="P3">
-        <v>0.01638625054584459</v>
+        <v>0.02932130719941569</v>
       </c>
       <c r="Q3">
-        <v>0.1094834978222994</v>
+        <v>0.3473988656348889</v>
       </c>
       <c r="R3">
-        <v>0.1094834978222994</v>
+        <v>3.126589790714</v>
       </c>
       <c r="S3">
-        <v>0.000832809585793676</v>
+        <v>0.001891670276063085</v>
       </c>
       <c r="T3">
-        <v>0.000832809585793676</v>
+        <v>0.001891670276063086</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.989984608863213</v>
+        <v>0.8155043333333333</v>
       </c>
       <c r="H4">
-        <v>0.989984608863213</v>
+        <v>2.446513</v>
       </c>
       <c r="I4">
-        <v>0.08509517229395397</v>
+        <v>0.06451520947540776</v>
       </c>
       <c r="J4">
-        <v>0.08509517229395397</v>
+        <v>0.06451520947540779</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.1148605612457</v>
+        <v>0.225293</v>
       </c>
       <c r="N4">
-        <v>11.1148605612457</v>
+        <v>0.675879</v>
       </c>
       <c r="O4">
-        <v>0.9836137494541555</v>
+        <v>0.01550703986190206</v>
       </c>
       <c r="P4">
-        <v>0.9836137494541555</v>
+        <v>0.01550703986190207</v>
       </c>
       <c r="Q4">
-        <v>11.00354088529398</v>
+        <v>0.1837274177696666</v>
       </c>
       <c r="R4">
-        <v>11.00354088529398</v>
+        <v>1.653546759927</v>
       </c>
       <c r="S4">
-        <v>0.08370078148050343</v>
+        <v>0.00100043992503411</v>
       </c>
       <c r="T4">
-        <v>0.08370078148050343</v>
+        <v>0.00100043992503411</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.989984608863213</v>
+        <v>1.070199666666667</v>
       </c>
       <c r="H5">
-        <v>0.989984608863213</v>
+        <v>3.210599</v>
       </c>
       <c r="I5">
-        <v>0.08509517229395397</v>
+        <v>0.08466436394433004</v>
       </c>
       <c r="J5">
-        <v>0.08509517229395397</v>
+        <v>0.08466436394433006</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.185165050854332</v>
+        <v>13.877148</v>
       </c>
       <c r="N5">
-        <v>0.185165050854332</v>
+        <v>41.631444</v>
       </c>
       <c r="O5">
-        <v>0.01638625054584459</v>
+        <v>0.9551716529386821</v>
       </c>
       <c r="P5">
-        <v>0.01638625054584459</v>
+        <v>0.9551716529386822</v>
       </c>
       <c r="Q5">
-        <v>0.1833105504451628</v>
+        <v>14.851319163884</v>
       </c>
       <c r="R5">
-        <v>0.1833105504451628</v>
+        <v>133.661872474956</v>
       </c>
       <c r="S5">
-        <v>0.001394390813450543</v>
+        <v>0.08086900045370789</v>
       </c>
       <c r="T5">
-        <v>0.001394390813450543</v>
+        <v>0.08086900045370791</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.48043758545582</v>
+        <v>1.070199666666667</v>
       </c>
       <c r="H6">
-        <v>1.48043758545582</v>
+        <v>3.210599</v>
       </c>
       <c r="I6">
-        <v>0.1272525757238461</v>
+        <v>0.08466436394433004</v>
       </c>
       <c r="J6">
-        <v>0.1272525757238461</v>
+        <v>0.08466436394433006</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>11.1148605612457</v>
+        <v>0.4259926666666667</v>
       </c>
       <c r="N6">
-        <v>11.1148605612457</v>
+        <v>1.277978</v>
       </c>
       <c r="O6">
-        <v>0.9836137494541555</v>
+        <v>0.02932130719941569</v>
       </c>
       <c r="P6">
-        <v>0.9836137494541555</v>
+        <v>0.02932130719941569</v>
       </c>
       <c r="Q6">
-        <v>16.45485733196871</v>
+        <v>0.4558972098691111</v>
       </c>
       <c r="R6">
-        <v>16.45485733196871</v>
+        <v>4.103074888822</v>
       </c>
       <c r="S6">
-        <v>0.1251673831354311</v>
+        <v>0.002482469824054835</v>
       </c>
       <c r="T6">
-        <v>0.1251673831354311</v>
+        <v>0.002482469824054835</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,57 +847,57 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.48043758545582</v>
+        <v>1.070199666666667</v>
       </c>
       <c r="H7">
-        <v>1.48043758545582</v>
+        <v>3.210599</v>
       </c>
       <c r="I7">
-        <v>0.1272525757238461</v>
+        <v>0.08466436394433004</v>
       </c>
       <c r="J7">
-        <v>0.1272525757238461</v>
+        <v>0.08466436394433006</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.185165050854332</v>
+        <v>0.225293</v>
       </c>
       <c r="N7">
-        <v>0.185165050854332</v>
+        <v>0.675879</v>
       </c>
       <c r="O7">
-        <v>0.01638625054584459</v>
+        <v>0.01550703986190206</v>
       </c>
       <c r="P7">
-        <v>0.01638625054584459</v>
+        <v>0.01550703986190207</v>
       </c>
       <c r="Q7">
-        <v>0.2741253007975914</v>
+        <v>0.2411084935023333</v>
       </c>
       <c r="R7">
-        <v>0.2741253007975914</v>
+        <v>2.169976441521</v>
       </c>
       <c r="S7">
-        <v>0.002085192588415004</v>
+        <v>0.00131289366656731</v>
       </c>
       <c r="T7">
-        <v>0.002085192588415004</v>
+        <v>0.00131289366656731</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -909,57 +909,57 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.58642026748336</v>
+        <v>1.792556333333333</v>
       </c>
       <c r="H8">
-        <v>1.58642026748336</v>
+        <v>5.377669</v>
       </c>
       <c r="I8">
-        <v>0.13636242905547</v>
+        <v>0.1418105859336969</v>
       </c>
       <c r="J8">
-        <v>0.13636242905547</v>
+        <v>0.1418105859336969</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.1148605612457</v>
+        <v>13.877148</v>
       </c>
       <c r="N8">
-        <v>11.1148605612457</v>
+        <v>41.631444</v>
       </c>
       <c r="O8">
-        <v>0.9836137494541555</v>
+        <v>0.9551716529386821</v>
       </c>
       <c r="P8">
-        <v>0.9836137494541555</v>
+        <v>0.9551716529386822</v>
       </c>
       <c r="Q8">
-        <v>17.63284006461165</v>
+        <v>24.875569536004</v>
       </c>
       <c r="R8">
-        <v>17.63284006461165</v>
+        <v>223.880125824036</v>
       </c>
       <c r="S8">
-        <v>0.1341279601279271</v>
+        <v>0.1354534517704923</v>
       </c>
       <c r="T8">
-        <v>0.1341279601279271</v>
+        <v>0.1354534517704923</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.58642026748336</v>
+        <v>1.792556333333333</v>
       </c>
       <c r="H9">
-        <v>1.58642026748336</v>
+        <v>5.377669</v>
       </c>
       <c r="I9">
-        <v>0.13636242905547</v>
+        <v>0.1418105859336969</v>
       </c>
       <c r="J9">
-        <v>0.13636242905547</v>
+        <v>0.1418105859336969</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.185165050854332</v>
+        <v>0.4259926666666667</v>
       </c>
       <c r="N9">
-        <v>0.185165050854332</v>
+        <v>1.277978</v>
       </c>
       <c r="O9">
-        <v>0.01638625054584459</v>
+        <v>0.02932130719941569</v>
       </c>
       <c r="P9">
-        <v>0.01638625054584459</v>
+        <v>0.02932130719941569</v>
       </c>
       <c r="Q9">
-        <v>0.2937495895048993</v>
+        <v>0.7636158525868889</v>
       </c>
       <c r="R9">
-        <v>0.2937495895048993</v>
+        <v>6.872542673282</v>
       </c>
       <c r="S9">
-        <v>0.002234468927542889</v>
+        <v>0.004158071754291065</v>
       </c>
       <c r="T9">
-        <v>0.002234468927542889</v>
+        <v>0.004158071754291066</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.20817116431918</v>
+        <v>1.792556333333333</v>
       </c>
       <c r="H10">
-        <v>6.20817116431918</v>
+        <v>5.377669</v>
       </c>
       <c r="I10">
-        <v>0.5336299070999911</v>
+        <v>0.1418105859336969</v>
       </c>
       <c r="J10">
-        <v>0.5336299070999911</v>
+        <v>0.1418105859336969</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.1148605612457</v>
+        <v>0.225293</v>
       </c>
       <c r="N10">
-        <v>11.1148605612457</v>
+        <v>0.675879</v>
       </c>
       <c r="O10">
-        <v>0.9836137494541555</v>
+        <v>0.01550703986190206</v>
       </c>
       <c r="P10">
-        <v>0.9836137494541555</v>
+        <v>0.01550703986190207</v>
       </c>
       <c r="Q10">
-        <v>69.00295683175405</v>
+        <v>0.4038503940056667</v>
       </c>
       <c r="R10">
-        <v>69.00295683175405</v>
+        <v>3.634653546051</v>
       </c>
       <c r="S10">
-        <v>0.5248857137434949</v>
+        <v>0.002199062408913526</v>
       </c>
       <c r="T10">
-        <v>0.5248857137434949</v>
+        <v>0.002199062408913527</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.20817116431918</v>
+        <v>1.782737666666667</v>
       </c>
       <c r="H11">
-        <v>6.20817116431918</v>
+        <v>5.348212999999999</v>
       </c>
       <c r="I11">
-        <v>0.5336299070999911</v>
+        <v>0.1410338232472499</v>
       </c>
       <c r="J11">
-        <v>0.5336299070999911</v>
+        <v>0.1410338232472499</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.185165050854332</v>
+        <v>13.877148</v>
       </c>
       <c r="N11">
-        <v>0.185165050854332</v>
+        <v>41.631444</v>
       </c>
       <c r="O11">
-        <v>0.01638625054584459</v>
+        <v>0.9551716529386821</v>
       </c>
       <c r="P11">
-        <v>0.01638625054584459</v>
+        <v>0.9551716529386822</v>
       </c>
       <c r="Q11">
-        <v>1.149536329353558</v>
+        <v>24.739314445508</v>
       </c>
       <c r="R11">
-        <v>1.149536329353558</v>
+        <v>222.653830009572</v>
       </c>
       <c r="S11">
-        <v>0.008744193356496227</v>
+        <v>0.1347115100713376</v>
       </c>
       <c r="T11">
-        <v>0.008744193356496227</v>
+        <v>0.1347115100713376</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.777562828617253</v>
+        <v>1.782737666666667</v>
       </c>
       <c r="H12">
-        <v>0.777562828617253</v>
+        <v>5.348212999999999</v>
       </c>
       <c r="I12">
-        <v>0.06683623389512884</v>
+        <v>0.1410338232472499</v>
       </c>
       <c r="J12">
-        <v>0.06683623389512884</v>
+        <v>0.1410338232472499</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>11.1148605612457</v>
+        <v>0.4259926666666667</v>
       </c>
       <c r="N12">
-        <v>11.1148605612457</v>
+        <v>1.277978</v>
       </c>
       <c r="O12">
-        <v>0.9836137494541555</v>
+        <v>0.02932130719941569</v>
       </c>
       <c r="P12">
-        <v>0.9836137494541555</v>
+        <v>0.02932130719941569</v>
       </c>
       <c r="Q12">
-        <v>8.642502417688556</v>
+        <v>0.7594331725904444</v>
       </c>
       <c r="R12">
-        <v>8.642502417688556</v>
+        <v>6.834898553314</v>
       </c>
       <c r="S12">
-        <v>0.0657410386209826</v>
+        <v>0.004135296056940707</v>
       </c>
       <c r="T12">
-        <v>0.0657410386209826</v>
+        <v>0.004135296056940708</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,52 +1219,424 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.777562828617253</v>
+        <v>1.782737666666667</v>
       </c>
       <c r="H13">
-        <v>0.777562828617253</v>
+        <v>5.348212999999999</v>
       </c>
       <c r="I13">
-        <v>0.06683623389512884</v>
+        <v>0.1410338232472499</v>
       </c>
       <c r="J13">
-        <v>0.06683623389512884</v>
+        <v>0.1410338232472499</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.185165050854332</v>
+        <v>0.225293</v>
       </c>
       <c r="N13">
-        <v>0.185165050854332</v>
+        <v>0.675879</v>
       </c>
       <c r="O13">
-        <v>0.01638625054584459</v>
+        <v>0.01550703986190206</v>
       </c>
       <c r="P13">
-        <v>0.01638625054584459</v>
+        <v>0.01550703986190207</v>
       </c>
       <c r="Q13">
-        <v>0.1439774607033519</v>
+        <v>0.4016383171363333</v>
       </c>
       <c r="R13">
-        <v>0.1439774607033519</v>
+        <v>3.614744854227</v>
       </c>
       <c r="S13">
-        <v>0.001095195274146252</v>
+        <v>0.002187017118971553</v>
       </c>
       <c r="T13">
-        <v>0.001095195274146252</v>
+        <v>0.002187017118971554</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>6.337404666666667</v>
+      </c>
+      <c r="H14">
+        <v>19.012214</v>
+      </c>
+      <c r="I14">
+        <v>0.5013572250796461</v>
+      </c>
+      <c r="J14">
+        <v>0.5013572250796462</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>13.877148</v>
+      </c>
+      <c r="N14">
+        <v>41.631444</v>
+      </c>
+      <c r="O14">
+        <v>0.9551716529386821</v>
+      </c>
+      <c r="P14">
+        <v>0.9551716529386822</v>
+      </c>
+      <c r="Q14">
+        <v>87.94510249522401</v>
+      </c>
+      <c r="R14">
+        <v>791.505922457016</v>
+      </c>
+      <c r="S14">
+        <v>0.4788822093920764</v>
+      </c>
+      <c r="T14">
+        <v>0.4788822093920766</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>6.337404666666667</v>
+      </c>
+      <c r="H15">
+        <v>19.012214</v>
+      </c>
+      <c r="I15">
+        <v>0.5013572250796461</v>
+      </c>
+      <c r="J15">
+        <v>0.5013572250796462</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.4259926666666667</v>
+      </c>
+      <c r="N15">
+        <v>1.277978</v>
+      </c>
+      <c r="O15">
+        <v>0.02932130719941569</v>
+      </c>
+      <c r="P15">
+        <v>0.02932130719941569</v>
+      </c>
+      <c r="Q15">
+        <v>2.699687913699111</v>
+      </c>
+      <c r="R15">
+        <v>24.297191223292</v>
+      </c>
+      <c r="S15">
+        <v>0.0147004492132069</v>
+      </c>
+      <c r="T15">
+        <v>0.0147004492132069</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>6.337404666666667</v>
+      </c>
+      <c r="H16">
+        <v>19.012214</v>
+      </c>
+      <c r="I16">
+        <v>0.5013572250796461</v>
+      </c>
+      <c r="J16">
+        <v>0.5013572250796462</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.225293</v>
+      </c>
+      <c r="N16">
+        <v>0.675879</v>
+      </c>
+      <c r="O16">
+        <v>0.01550703986190206</v>
+      </c>
+      <c r="P16">
+        <v>0.01550703986190207</v>
+      </c>
+      <c r="Q16">
+        <v>1.427772909567333</v>
+      </c>
+      <c r="R16">
+        <v>12.849956186106</v>
+      </c>
+      <c r="S16">
+        <v>0.007774566474362677</v>
+      </c>
+      <c r="T16">
+        <v>0.007774566474362679</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.8420946666666667</v>
+      </c>
+      <c r="H17">
+        <v>2.526284</v>
+      </c>
+      <c r="I17">
+        <v>0.06661879231966927</v>
+      </c>
+      <c r="J17">
+        <v>0.06661879231966929</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>13.877148</v>
+      </c>
+      <c r="N17">
+        <v>41.631444</v>
+      </c>
+      <c r="O17">
+        <v>0.9551716529386821</v>
+      </c>
+      <c r="P17">
+        <v>0.9551716529386822</v>
+      </c>
+      <c r="Q17">
+        <v>11.685872319344</v>
+      </c>
+      <c r="R17">
+        <v>105.172850874096</v>
+      </c>
+      <c r="S17">
+        <v>0.06363238197675727</v>
+      </c>
+      <c r="T17">
+        <v>0.0636323819767573</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.8420946666666667</v>
+      </c>
+      <c r="H18">
+        <v>2.526284</v>
+      </c>
+      <c r="I18">
+        <v>0.06661879231966927</v>
+      </c>
+      <c r="J18">
+        <v>0.06661879231966929</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.4259926666666667</v>
+      </c>
+      <c r="N18">
+        <v>1.277978</v>
+      </c>
+      <c r="O18">
+        <v>0.02932130719941569</v>
+      </c>
+      <c r="P18">
+        <v>0.02932130719941569</v>
+      </c>
+      <c r="Q18">
+        <v>0.3587261526391111</v>
+      </c>
+      <c r="R18">
+        <v>3.228535373752</v>
+      </c>
+      <c r="S18">
+        <v>0.001953350074859097</v>
+      </c>
+      <c r="T18">
+        <v>0.001953350074859098</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.8420946666666667</v>
+      </c>
+      <c r="H19">
+        <v>2.526284</v>
+      </c>
+      <c r="I19">
+        <v>0.06661879231966927</v>
+      </c>
+      <c r="J19">
+        <v>0.06661879231966929</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.225293</v>
+      </c>
+      <c r="N19">
+        <v>0.675879</v>
+      </c>
+      <c r="O19">
+        <v>0.01550703986190206</v>
+      </c>
+      <c r="P19">
+        <v>0.01550703986190207</v>
+      </c>
+      <c r="Q19">
+        <v>0.1897180337373333</v>
+      </c>
+      <c r="R19">
+        <v>1.707462303636</v>
+      </c>
+      <c r="S19">
+        <v>0.001033060268052886</v>
+      </c>
+      <c r="T19">
+        <v>0.001033060268052887</v>
       </c>
     </row>
   </sheetData>
